--- a/测试单-电子书_daisy_161026.xlsx
+++ b/测试单-电子书_daisy_161026.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="177">
   <si>
     <t>编号</t>
   </si>
@@ -1337,6 +1337,14 @@
   </si>
   <si>
     <t>复检已改daisy记录。新增编号49~55。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,72 +2519,7 @@
     <cellStyle name="常规 3 7" xfId="17"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3159,13 +3102,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3195,7 +3139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="54">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
@@ -3245,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="118" customFormat="1" ht="40.5">
+    <row r="3" spans="1:19" s="118" customFormat="1" ht="40.5" hidden="1">
       <c r="A3" s="99">
         <v>1</v>
       </c>
@@ -3281,7 +3225,7 @@
       <c r="O3" s="101"/>
       <c r="P3" s="107"/>
     </row>
-    <row r="4" spans="1:19" s="118" customFormat="1" ht="135">
+    <row r="4" spans="1:19" s="118" customFormat="1" ht="135" hidden="1">
       <c r="A4" s="99">
         <v>2</v>
       </c>
@@ -3319,7 +3263,7 @@
       <c r="O4" s="101"/>
       <c r="P4" s="107"/>
     </row>
-    <row r="5" spans="1:19" s="118" customFormat="1" ht="27">
+    <row r="5" spans="1:19" s="118" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="99">
         <v>3</v>
       </c>
@@ -3355,7 +3299,7 @@
       <c r="O5" s="101"/>
       <c r="P5" s="107"/>
     </row>
-    <row r="6" spans="1:19" s="118" customFormat="1" ht="27">
+    <row r="6" spans="1:19" s="118" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="99">
         <v>4</v>
       </c>
@@ -3391,7 +3335,7 @@
       <c r="O6" s="101"/>
       <c r="P6" s="107"/>
     </row>
-    <row r="7" spans="1:19" s="118" customFormat="1" ht="27">
+    <row r="7" spans="1:19" s="118" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="99">
         <v>5</v>
       </c>
@@ -3435,7 +3379,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="118" customFormat="1" ht="40.5">
+    <row r="8" spans="1:19" s="118" customFormat="1" ht="40.5" hidden="1">
       <c r="A8" s="99">
         <v>6</v>
       </c>
@@ -3479,7 +3423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="54">
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="54" hidden="1">
       <c r="A9" s="99">
         <v>7</v>
       </c>
@@ -3515,7 +3459,7 @@
       <c r="O9" s="101"/>
       <c r="P9" s="107"/>
     </row>
-    <row r="10" spans="1:19" s="115" customFormat="1" ht="40.5">
+    <row r="10" spans="1:19" s="115" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="99">
         <v>8</v>
       </c>
@@ -3551,7 +3495,7 @@
       <c r="O10" s="101"/>
       <c r="P10" s="107"/>
     </row>
-    <row r="11" spans="1:19" s="115" customFormat="1">
+    <row r="11" spans="1:19" s="115" customFormat="1" hidden="1">
       <c r="A11" s="99">
         <v>9</v>
       </c>
@@ -3628,7 +3572,7 @@
       </c>
       <c r="S12" s="121"/>
     </row>
-    <row r="13" spans="1:19" s="115" customFormat="1" ht="27">
+    <row r="13" spans="1:19" s="115" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="99">
         <v>11</v>
       </c>
@@ -3818,7 +3762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="108" customFormat="1" ht="40.5">
+    <row r="18" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
       <c r="A18" s="99">
         <v>16</v>
       </c>
@@ -3862,7 +3806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="108" customFormat="1" ht="40.5">
+    <row r="19" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
       <c r="A19" s="99">
         <v>17</v>
       </c>
@@ -3978,7 +3922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="108" customFormat="1" ht="40.5">
+    <row r="22" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
       <c r="A22" s="99">
         <v>20</v>
       </c>
@@ -4056,7 +4000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="108" customFormat="1">
+    <row r="24" spans="1:16" s="108" customFormat="1" hidden="1">
       <c r="A24" s="99">
         <v>22</v>
       </c>
@@ -4134,7 +4078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="108" customFormat="1" ht="40.5">
+    <row r="26" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
       <c r="A26" s="99">
         <v>24</v>
       </c>
@@ -4176,7 +4120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="108" customFormat="1" ht="27">
+    <row r="27" spans="1:16" s="108" customFormat="1" ht="27" hidden="1">
       <c r="A27" s="99">
         <v>25</v>
       </c>
@@ -4220,7 +4164,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="108" customFormat="1" ht="54">
+    <row r="28" spans="1:16" s="108" customFormat="1" ht="54" hidden="1">
       <c r="A28" s="99">
         <v>26</v>
       </c>
@@ -4290,7 +4234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="108" customFormat="1" ht="81">
+    <row r="30" spans="1:16" s="108" customFormat="1" ht="81" hidden="1">
       <c r="A30" s="99">
         <v>28</v>
       </c>
@@ -4328,7 +4272,7 @@
       <c r="O30" s="101"/>
       <c r="P30" s="107"/>
     </row>
-    <row r="31" spans="1:16" s="108" customFormat="1" ht="81">
+    <row r="31" spans="1:16" s="108" customFormat="1" ht="81" hidden="1">
       <c r="A31" s="99">
         <v>29</v>
       </c>
@@ -4400,7 +4344,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="108" customFormat="1" ht="94.5">
+    <row r="33" spans="1:19" s="108" customFormat="1" ht="94.5" hidden="1">
       <c r="A33" s="99">
         <v>31</v>
       </c>
@@ -4438,7 +4382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="108" customFormat="1" ht="81">
+    <row r="34" spans="1:19" s="108" customFormat="1" ht="81" hidden="1">
       <c r="A34" s="99">
         <v>32</v>
       </c>
@@ -4481,7 +4425,7 @@
       </c>
       <c r="S34" s="128"/>
     </row>
-    <row r="35" spans="1:19" s="108" customFormat="1" ht="54">
+    <row r="35" spans="1:19" s="108" customFormat="1" ht="54" hidden="1">
       <c r="A35" s="99">
         <v>33</v>
       </c>
@@ -4524,7 +4468,7 @@
       </c>
       <c r="S35" s="128"/>
     </row>
-    <row r="36" spans="1:19" s="108" customFormat="1" ht="94.5">
+    <row r="36" spans="1:19" s="108" customFormat="1" ht="94.5" hidden="1">
       <c r="A36" s="99">
         <v>34</v>
       </c>
@@ -4637,7 +4581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="108" customFormat="1">
+    <row r="39" spans="1:19" s="108" customFormat="1" hidden="1">
       <c r="A39" s="99">
         <v>37</v>
       </c>
@@ -4897,7 +4841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="108" customFormat="1" ht="40.5">
+    <row r="46" spans="1:19" s="108" customFormat="1" ht="40.5" hidden="1">
       <c r="A46" s="99">
         <v>44</v>
       </c>
@@ -5009,7 +4953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="108" customFormat="1">
+    <row r="49" spans="1:16" s="108" customFormat="1" hidden="1">
       <c r="A49" s="99">
         <v>47</v>
       </c>
@@ -5050,7 +4994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="108" customFormat="1" ht="27">
+    <row r="50" spans="1:16" s="108" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="99">
         <v>48</v>
       </c>
@@ -5125,7 +5069,9 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="24"/>
-      <c r="P51" s="13"/>
+      <c r="P51" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="99">
@@ -5159,9 +5105,11 @@
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
       <c r="O52" s="92"/>
-      <c r="P52" s="13"/>
-    </row>
-    <row r="53" spans="1:16" s="108" customFormat="1" ht="40.5">
+      <c r="P52" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
       <c r="A53" s="99">
         <v>51</v>
       </c>
@@ -5230,7 +5178,9 @@
       <c r="M54" s="90"/>
       <c r="N54" s="90"/>
       <c r="O54" s="92"/>
-      <c r="P54" s="13"/>
+      <c r="P54" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="99">
@@ -5264,7 +5214,9 @@
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
       <c r="O55" s="92"/>
-      <c r="P55" s="13"/>
+      <c r="P55" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="99">
@@ -5298,7 +5250,9 @@
       <c r="M56" s="90"/>
       <c r="N56" s="90"/>
       <c r="O56" s="92"/>
-      <c r="P56" s="13"/>
+      <c r="P56" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="99">
@@ -5332,7 +5286,9 @@
       <c r="M57" s="90"/>
       <c r="N57" s="90"/>
       <c r="O57" s="92"/>
-      <c r="P57" s="13"/>
+      <c r="P57" s="13" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="58" spans="1:16" s="30" customFormat="1">
       <c r="A58" s="15"/>
@@ -5354,12 +5310,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:P57">
-    <filterColumn colId="8"/>
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161026.xlsx
+++ b/测试单-电子书_daisy_161026.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="179">
   <si>
     <t>编号</t>
   </si>
@@ -1345,6 +1345,14 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据如此。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据如此。(文字上面其实是一个表，但没有对应的文字，声音文件就读作table)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3106,10 +3114,10 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N60" sqref="N60"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3914,10 +3922,16 @@
       <c r="I21" s="89"/>
       <c r="J21" s="26"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="89" t="s">
+        <v>106</v>
+      </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" s="24">
+        <v>42677</v>
+      </c>
       <c r="P21" s="13" t="s">
         <v>101</v>
       </c>
@@ -3992,10 +4006,16 @@
       <c r="I23" s="89"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="37"/>
+      <c r="L23" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" s="92">
+        <v>42677</v>
+      </c>
       <c r="P23" s="40" t="s">
         <v>101</v>
       </c>
@@ -5322,7 +5342,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L49 L51:L57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L57 L18:L49">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-电子书_daisy_161026.xlsx
+++ b/测试单-电子书_daisy_161026.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="181">
   <si>
     <t>编号</t>
   </si>
@@ -1353,6 +1353,14 @@
   </si>
   <si>
     <t>原始数据如此。(文字上面其实是一个表，但没有对应的文字，声音文件就读作table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个跟后鼎讨论过，无法精确定位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个问题我仔细跟踪了一下，这个问题是因为android提供的音频播放接口在seek到某个位置时，需要定位到关键帧才能播放，所以会导致这个现象，无法修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3114,10 +3122,10 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3539,7 +3547,7 @@
       <c r="O11" s="101"/>
       <c r="P11" s="107"/>
     </row>
-    <row r="12" spans="1:19" customFormat="1" ht="40.5">
+    <row r="12" spans="1:19" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="99">
         <v>10</v>
       </c>
@@ -3616,7 +3624,7 @@
       <c r="O13" s="101"/>
       <c r="P13" s="107"/>
     </row>
-    <row r="14" spans="1:19" customFormat="1" ht="40.5">
+    <row r="14" spans="1:19" customFormat="1" ht="40.5" hidden="1">
       <c r="A14" s="99">
         <v>12</v>
       </c>
@@ -3655,7 +3663,7 @@
       </c>
       <c r="S14" s="121"/>
     </row>
-    <row r="15" spans="1:19" customFormat="1" ht="27">
+    <row r="15" spans="1:19" customFormat="1" ht="27" hidden="1">
       <c r="A15" s="99">
         <v>13</v>
       </c>
@@ -3693,7 +3701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:19" customFormat="1" ht="40.5">
+    <row r="16" spans="1:19" customFormat="1" ht="40.5" hidden="1">
       <c r="A16" s="99">
         <v>14</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:16" customFormat="1" ht="27">
+    <row r="17" spans="1:16" customFormat="1" ht="27" hidden="1">
       <c r="A17" s="99">
         <v>15</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="54">
+    <row r="20" spans="1:16" ht="54" hidden="1">
       <c r="A20" s="99">
         <v>18</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="54">
+    <row r="21" spans="1:16" ht="54" hidden="1">
       <c r="A21" s="99">
         <v>19</v>
       </c>
@@ -3980,7 +3988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="41" customFormat="1" ht="54">
+    <row r="23" spans="1:16" s="41" customFormat="1" ht="54" hidden="1">
       <c r="A23" s="99">
         <v>21</v>
       </c>
@@ -4220,7 +4228,7 @@
       <c r="O28" s="101"/>
       <c r="P28" s="107"/>
     </row>
-    <row r="29" spans="1:16" ht="67.5">
+    <row r="29" spans="1:16" ht="67.5" hidden="1">
       <c r="A29" s="99">
         <v>27</v>
       </c>
@@ -4531,7 +4539,7 @@
       </c>
       <c r="S36" s="128"/>
     </row>
-    <row r="37" spans="1:19" s="41" customFormat="1" ht="81">
+    <row r="37" spans="1:19" s="41" customFormat="1" ht="81" hidden="1">
       <c r="A37" s="99">
         <v>35</v>
       </c>
@@ -4565,7 +4573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="94" customFormat="1" ht="67.5">
+    <row r="38" spans="1:19" s="94" customFormat="1" ht="67.5" hidden="1">
       <c r="A38" s="99">
         <v>36</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="41" customFormat="1">
+    <row r="41" spans="1:19" s="41" customFormat="1" hidden="1">
       <c r="A41" s="99">
         <v>39</v>
       </c>
@@ -5057,7 +5065,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="40.5">
+    <row r="51" spans="1:16" ht="94.5">
       <c r="A51" s="99">
         <v>49</v>
       </c>
@@ -5085,15 +5093,21 @@
       <c r="I51" s="11"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
-      <c r="L51" s="11"/>
+      <c r="L51" s="89" t="s">
+        <v>106</v>
+      </c>
       <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="24"/>
+      <c r="N51" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="O51" s="92">
+        <v>42691</v>
+      </c>
       <c r="P51" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="99">
         <v>50</v>
       </c>
@@ -5121,10 +5135,16 @@
       <c r="I52" s="89"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
-      <c r="L52" s="89"/>
+      <c r="L52" s="89" t="s">
+        <v>106</v>
+      </c>
       <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="92"/>
+      <c r="N52" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="O52" s="92">
+        <v>42691</v>
+      </c>
       <c r="P52" s="13" t="s">
         <v>175</v>
       </c>
@@ -5194,10 +5214,6 @@
       <c r="I54" s="89"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="92"/>
       <c r="P54" s="13" t="s">
         <v>175</v>
       </c>
@@ -5230,10 +5246,14 @@
       <c r="I55" s="89"/>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
-      <c r="L55" s="89"/>
+      <c r="L55" s="89" t="s">
+        <v>103</v>
+      </c>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
-      <c r="O55" s="92"/>
+      <c r="O55" s="92">
+        <v>42691</v>
+      </c>
       <c r="P55" s="13" t="s">
         <v>175</v>
       </c>
@@ -5274,7 +5294,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57" s="99">
         <v>55</v>
       </c>
@@ -5333,7 +5353,14 @@
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="15"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="z"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
@@ -5342,7 +5369,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L57 L18:L49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L49 L55:L57 L51:L53">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-电子书_daisy_161026.xlsx
+++ b/测试单-电子书_daisy_161026.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
   <si>
     <t>编号</t>
   </si>
@@ -1361,6 +1361,10 @@
   </si>
   <si>
     <t>这个问题我仔细跟踪了一下，这个问题是因为android提供的音频播放接口在seek到某个位置时，需要定位到关键帧才能播放，所以会导致这个现象，无法修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8版本的文档上写的是左右键切换章节，上下键切换句子。我们理解是在当前章节切换句子，就像页码跳转一样。程序架构也是按照这个设计的，目前要改成可以这个文章切换句子，这个很难办啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,10 +3126,10 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4072,7 +4076,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="81">
+    <row r="25" spans="1:16" ht="81" hidden="1">
       <c r="A25" s="99">
         <v>23</v>
       </c>
@@ -4098,10 +4102,14 @@
       <c r="I25" s="89"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="89" t="s">
+        <v>103</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="24"/>
+      <c r="O25" s="24">
+        <v>42691</v>
+      </c>
       <c r="P25" s="13" t="s">
         <v>101</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="41" customFormat="1" ht="27">
+    <row r="42" spans="1:19" s="41" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="99">
         <v>40</v>
       </c>
@@ -4753,10 +4761,16 @@
       <c r="I42" s="36"/>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
-      <c r="L42" s="36"/>
+      <c r="L42" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="37"/>
+      <c r="N42" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42" s="37">
+        <v>42691</v>
+      </c>
       <c r="P42" s="40" t="s">
         <v>101</v>
       </c>
@@ -5065,7 +5079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="99">
         <v>49</v>
       </c>
@@ -5107,7 +5121,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="99">
         <v>50</v>
       </c>
@@ -5218,7 +5232,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" hidden="1">
       <c r="A55" s="99">
         <v>53</v>
       </c>

--- a/测试单-电子书_daisy_161026.xlsx
+++ b/测试单-电子书_daisy_161026.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="187">
   <si>
     <t>编号</t>
   </si>
@@ -1365,6 +1365,26 @@
   </si>
   <si>
     <t>1.8版本的文档上写的是左右键切换章节，上下键切换句子。我们理解是在当前章节切换句子，就像页码跳转一样。程序架构也是按照这个设计的，目前要改成可以这个文章切换句子，这个很难办啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按左右键切换章节，按上下键只能切换当前章节的句子。修改了在当前章节第二句按上键不能切换到第一句的问题。另外修改了提示信息，按左键时提示“已经到第一章”，按上键时提示“已经到开头”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了不能继续朗读的问题。另外修改了提示信息，按左键时提示“已经到第一章”，按上键时提示“已经到开头”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了第一句不能正常播放的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换章节时需要做的事情很多，所以有些延迟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2121,7 +2141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2511,6 +2531,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3126,10 +3149,10 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4689,7 +4712,6 @@
       <c r="I40" s="36"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
-      <c r="L40" s="36"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
       <c r="O40" s="37"/>
@@ -4775,7 +4797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="94" customFormat="1" ht="27">
+    <row r="43" spans="1:19" s="94" customFormat="1" ht="67.5" hidden="1">
       <c r="A43" s="99">
         <v>41</v>
       </c>
@@ -4803,15 +4825,21 @@
       <c r="I43" s="36"/>
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
-      <c r="L43" s="36"/>
+      <c r="L43" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="91"/>
+      <c r="N43" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="O43" s="91">
+        <v>42694</v>
+      </c>
       <c r="P43" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="94" customFormat="1" ht="40.5">
+    <row r="44" spans="1:19" s="94" customFormat="1" ht="108" hidden="1">
       <c r="A44" s="99">
         <v>42</v>
       </c>
@@ -4839,15 +4867,21 @@
       <c r="I44" s="36"/>
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
-      <c r="L44" s="36"/>
+      <c r="L44" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="91"/>
+      <c r="N44" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="O44" s="91">
+        <v>42694</v>
+      </c>
       <c r="P44" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="94" customFormat="1" ht="40.5">
+    <row r="45" spans="1:19" s="94" customFormat="1" ht="40.5" hidden="1">
       <c r="A45" s="99">
         <v>43</v>
       </c>
@@ -4875,10 +4909,14 @@
       <c r="I45" s="36"/>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
-      <c r="L45" s="36"/>
+      <c r="L45" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="91"/>
+      <c r="O45" s="91">
+        <v>42694</v>
+      </c>
       <c r="P45" s="40" t="s">
         <v>101</v>
       </c>
@@ -4925,7 +4963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="94" customFormat="1" ht="40.5">
+    <row r="47" spans="1:19" s="94" customFormat="1" ht="40.5" hidden="1">
       <c r="A47" s="99">
         <v>45</v>
       </c>
@@ -4951,15 +4989,19 @@
       <c r="I47" s="36"/>
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
-      <c r="L47" s="36"/>
+      <c r="L47" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="91"/>
+      <c r="O47" s="91">
+        <v>42694</v>
+      </c>
       <c r="P47" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="94" customFormat="1" ht="40.5">
+    <row r="48" spans="1:19" s="94" customFormat="1" ht="40.5" hidden="1">
       <c r="A48" s="99">
         <v>46</v>
       </c>
@@ -4987,10 +5029,14 @@
       <c r="I48" s="36"/>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
-      <c r="L48" s="36"/>
+      <c r="L48" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="91"/>
+      <c r="O48" s="91">
+        <v>42694</v>
+      </c>
       <c r="P48" s="40" t="s">
         <v>101</v>
       </c>
@@ -5200,7 +5246,7 @@
       <c r="O53" s="101"/>
       <c r="P53" s="107"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54" s="99">
         <v>52</v>
       </c>
@@ -5228,6 +5274,15 @@
       <c r="I54" s="89"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
+      <c r="L54" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O54" s="130">
+        <v>42694</v>
+      </c>
       <c r="P54" s="13" t="s">
         <v>175</v>
       </c>
@@ -5272,7 +5327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="27" hidden="1">
       <c r="A56" s="99">
         <v>54</v>
       </c>
@@ -5300,10 +5355,16 @@
       <c r="I56" s="89"/>
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
-      <c r="L56" s="89"/>
+      <c r="L56" s="89" t="s">
+        <v>106</v>
+      </c>
       <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="92"/>
+      <c r="N56" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56" s="92">
+        <v>42694</v>
+      </c>
       <c r="P56" s="13" t="s">
         <v>175</v>
       </c>
@@ -5383,7 +5444,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L49 L55:L57 L51:L53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L53 L18:L39 L41:L49 L55:L57">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-电子书_daisy_161026.xlsx
+++ b/测试单-电子书_daisy_161026.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="188">
   <si>
     <t>编号</t>
   </si>
@@ -1385,6 +1385,10 @@
   </si>
   <si>
     <t>切换章节时需要做的事情很多，所以有些延迟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3149,10 +3153,10 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="P32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4259,7 +4263,7 @@
       <c r="O28" s="101"/>
       <c r="P28" s="107"/>
     </row>
-    <row r="29" spans="1:16" ht="67.5" hidden="1">
+    <row r="29" spans="1:16" ht="67.5">
       <c r="A29" s="99">
         <v>27</v>
       </c>
@@ -4570,7 +4574,7 @@
       </c>
       <c r="S36" s="128"/>
     </row>
-    <row r="37" spans="1:19" s="41" customFormat="1" ht="81" hidden="1">
+    <row r="37" spans="1:19" s="41" customFormat="1" ht="81">
       <c r="A37" s="99">
         <v>35</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="94" customFormat="1" ht="67.5" hidden="1">
+    <row r="38" spans="1:19" s="94" customFormat="1" ht="67.5">
       <c r="A38" s="99">
         <v>36</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="41" customFormat="1">
+    <row r="40" spans="1:19" s="41" customFormat="1" hidden="1">
       <c r="A40" s="99">
         <v>38</v>
       </c>
@@ -4712,14 +4716,19 @@
       <c r="I40" s="36"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
+      <c r="L40" s="94" t="s">
+        <v>187</v>
+      </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="37"/>
+      <c r="O40" s="37">
+        <v>42694</v>
+      </c>
       <c r="P40" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="41" customFormat="1" hidden="1">
+    <row r="41" spans="1:19" s="41" customFormat="1">
       <c r="A41" s="99">
         <v>39</v>
       </c>
@@ -5369,7 +5378,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16">
       <c r="A57" s="99">
         <v>55</v>
       </c>
@@ -5431,11 +5440,7 @@
     <filterColumn colId="11">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="z"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
